--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="31930" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>RoleId</t>
+    <t>MaterialId</t>
   </si>
   <si>
     <t>MaterialName</t>
@@ -81,11 +81,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,9 +103,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,66 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -188,15 +211,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,39 +232,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,187 +262,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,30 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -521,15 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,11 +518,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,16 +542,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,20 +1078,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.4545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.2545454545455" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.8727272727273" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31930" windowHeight="7500"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>材料ID</t>
   </si>
@@ -25,7 +25,10 @@
     <t>材料名字</t>
   </si>
   <si>
-    <t>角色描述</t>
+    <t>材料icon</t>
+  </si>
+  <si>
+    <t>材料描述</t>
   </si>
   <si>
     <t>材料类型</t>
@@ -34,9 +37,15 @@
     <t>出售价格</t>
   </si>
   <si>
+    <t>产出途径(1-资源岛，2-战斗奖励，3-菜园，4-钓鱼台，5-加工室,6-商城，7-活动)</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -49,6 +58,9 @@
     <t>MaterialName</t>
   </si>
   <si>
+    <t>MaterialIcon</t>
+  </si>
+  <si>
     <t>MaterialDsc</t>
   </si>
   <si>
@@ -58,7 +70,13 @@
     <t>MaterialPrice</t>
   </si>
   <si>
-    <t>StuffA</t>
+    <t>OutputWay</t>
+  </si>
+  <si>
+    <t>石材</t>
+  </si>
+  <si>
+    <t>Stone</t>
   </si>
   <si>
     <t>A good thing.</t>
@@ -67,13 +85,229 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>StuffB</t>
-  </si>
-  <si>
-    <t>StuffC</t>
+    <t>石块</t>
+  </si>
+  <si>
+    <t>Slate</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>木板</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>铁矿</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
+  </si>
+  <si>
+    <t>铁</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t>Steel</t>
   </si>
   <si>
     <t>Spirit</t>
+  </si>
+  <si>
+    <t>硝石矿</t>
+  </si>
+  <si>
+    <t>Saltpeter Mine</t>
+  </si>
+  <si>
+    <t>硝石</t>
+  </si>
+  <si>
+    <t>Saltpeter</t>
+  </si>
+  <si>
+    <t>火药</t>
+  </si>
+  <si>
+    <t>Gunpowder</t>
+  </si>
+  <si>
+    <t>兽皮</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>皮革</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>精皮革</t>
+  </si>
+  <si>
+    <t>Fine Leather</t>
+  </si>
+  <si>
+    <t>红水晶</t>
+  </si>
+  <si>
+    <t>Rubasse</t>
+  </si>
+  <si>
+    <t>紫水晶</t>
+  </si>
+  <si>
+    <t>Amethyst</t>
+  </si>
+  <si>
+    <t>黑水晶</t>
+  </si>
+  <si>
+    <t>Morion</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>紫宝石</t>
+  </si>
+  <si>
+    <t>Purple Gem</t>
+  </si>
+  <si>
+    <t>黑宝石</t>
+  </si>
+  <si>
+    <t>Black Onyx</t>
+  </si>
+  <si>
+    <t>珊瑚</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>珍珠</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>琥珀</t>
+  </si>
+  <si>
+    <t>Lamber</t>
+  </si>
+  <si>
+    <t>人鱼眼泪</t>
+  </si>
+  <si>
+    <t>Mermaid Tears</t>
+  </si>
+  <si>
+    <t>神秘粘液</t>
+  </si>
+  <si>
+    <t>Mystery Mucus</t>
+  </si>
+  <si>
+    <t>巨蜥尾巴</t>
+  </si>
+  <si>
+    <t>Giant Lizard Tails</t>
+  </si>
+  <si>
+    <t>湛蓝羽毛</t>
+  </si>
+  <si>
+    <t>Blue Feather</t>
+  </si>
+  <si>
+    <t>飞鱼</t>
+  </si>
+  <si>
+    <t>Volador</t>
+  </si>
+  <si>
+    <t>银鲳</t>
+  </si>
+  <si>
+    <t>Pomfret</t>
+  </si>
+  <si>
+    <t>鱿鱼</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>金枪鱼</t>
+  </si>
+  <si>
+    <t>Tuna</t>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>大章鱼</t>
+  </si>
+  <si>
+    <t>Octopuss</t>
+  </si>
+  <si>
+    <t>辣椒</t>
+  </si>
+  <si>
+    <t>Chili</t>
+  </si>
+  <si>
+    <t>橘子</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>柠檬</t>
+  </si>
+  <si>
+    <t>Limo</t>
+  </si>
+  <si>
+    <t>迷迭香</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>番茄</t>
+  </si>
+  <si>
+    <t>Tomato</t>
   </si>
 </sst>
 </file>
@@ -81,13 +315,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,9 +338,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF434343"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,8 +351,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,14 +429,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,16 +436,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,55 +474,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,25 +503,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,157 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +708,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +786,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,69 +809,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,137 +827,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,6 +967,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,25 +1326,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.4545454545455" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.2545454545455" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.8727272727273" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.4537037037037" style="2" customWidth="1"/>
+    <col min="2" max="3" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.8703703703704" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,119 +1354,944 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>$D$4&amp;"_"&amp;A5</f>
+        <v>MaterialIcon_1001</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6:D42" si="0">$D$4&amp;"_"&amp;A6</f>
+        <v>MaterialIcon_1002</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
-        <v>200</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1003</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1004</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1005</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1006</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1007</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2">
+        <v>200</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1008</v>
+      </c>
+      <c r="G12" s="2">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1009</v>
+      </c>
+      <c r="G13" s="2">
+        <v>200</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1010</v>
+      </c>
+      <c r="G14" s="2">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1011</v>
+      </c>
+      <c r="G15" s="2">
+        <v>200</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1012</v>
+      </c>
+      <c r="G16" s="2">
+        <v>200</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1013</v>
+      </c>
+      <c r="G17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1014</v>
+      </c>
+      <c r="G18" s="2">
+        <v>200</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1015</v>
+      </c>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1016</v>
+      </c>
+      <c r="G20" s="2">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1017</v>
+      </c>
+      <c r="G21" s="2">
+        <v>200</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1018</v>
+      </c>
+      <c r="G22" s="2">
+        <v>200</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1019</v>
+      </c>
+      <c r="G23" s="2">
+        <v>200</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1020</v>
+      </c>
+      <c r="G24" s="2">
+        <v>200</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1021</v>
+      </c>
+      <c r="G25" s="2">
+        <v>200</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1022</v>
+      </c>
+      <c r="G26" s="2">
+        <v>200</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1023</v>
+      </c>
+      <c r="G27" s="2">
+        <v>200</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1024</v>
+      </c>
+      <c r="G28" s="2">
+        <v>200</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1025</v>
+      </c>
+      <c r="G29" s="2">
+        <v>200</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1026</v>
+      </c>
+      <c r="G30" s="2">
+        <v>200</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>1027</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1027</v>
+      </c>
+      <c r="G31" s="2">
+        <v>200</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>1028</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1028</v>
+      </c>
+      <c r="G32" s="2">
+        <v>200</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1029</v>
+      </c>
+      <c r="G33" s="2">
+        <v>200</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>1030</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1030</v>
+      </c>
+      <c r="G34" s="2">
+        <v>200</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>1031</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1031</v>
+      </c>
+      <c r="G35" s="2">
+        <v>200</v>
+      </c>
+      <c r="H35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1032</v>
+      </c>
+      <c r="G36" s="2">
+        <v>200</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>1033</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1033</v>
+      </c>
+      <c r="G37" s="2">
+        <v>200</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>1034</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1034</v>
+      </c>
+      <c r="G38" s="2">
+        <v>200</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>1035</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1035</v>
+      </c>
+      <c r="G39" s="2">
+        <v>200</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1036</v>
+      </c>
+      <c r="G40" s="2">
+        <v>200</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1037</v>
+      </c>
+      <c r="G41" s="2">
+        <v>200</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>1038</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1038</v>
+      </c>
+      <c r="G42" s="2">
+        <v>200</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D15">
+  <sortState ref="A3:F15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
+  <si>
+    <t>材料名字</t>
+  </si>
   <si>
     <t>材料ID</t>
   </si>
   <si>
-    <t>材料名字</t>
-  </si>
-  <si>
     <t>材料icon</t>
   </si>
   <si>
@@ -40,24 +40,24 @@
     <t>产出途径(1-资源岛，2-战斗奖励，3-菜园，4-钓鱼台，5-加工室,6-商城，7-活动)</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>N</t>
+    <t>string</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>MaterialName</t>
   </si>
   <si>
     <t>MaterialId</t>
   </si>
   <si>
-    <t>MaterialName</t>
-  </si>
-  <si>
     <t>MaterialIcon</t>
   </si>
   <si>
@@ -85,24 +85,12 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>石块</t>
-  </si>
-  <si>
-    <t>Slate</t>
-  </si>
-  <si>
     <t>木材</t>
   </si>
   <si>
     <t>Wood</t>
   </si>
   <si>
-    <t>木板</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
     <t>铁矿</t>
   </si>
   <si>
@@ -220,7 +208,7 @@
     <t>Mermaid Tears</t>
   </si>
   <si>
-    <t>神秘粘液</t>
+    <t>神秘黏液</t>
   </si>
   <si>
     <t>Mystery Mucus</t>
@@ -238,7 +226,7 @@
     <t>Blue Feather</t>
   </si>
   <si>
-    <t>飞鱼</t>
+    <t>鲷鱼</t>
   </si>
   <si>
     <t>Volador</t>
@@ -316,10 +304,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -345,7 +333,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,29 +439,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,92 +469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,49 +491,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,133 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +700,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -719,6 +746,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,7 +784,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,70 +797,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,147 +815,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -978,6 +966,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1326,24 +1317,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.4537037037037" style="2" customWidth="1"/>
-    <col min="2" max="3" width="17" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.4444444444444" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.8703703703704" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.3333333333333" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.4537037037037" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.8703703703704" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
@@ -1354,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1380,22 +1372,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
@@ -1406,22 +1398,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
@@ -1432,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1451,848 +1443,980 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
         <v>1001</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f>$D$4&amp;"_"&amp;A5</f>
+      <c r="D5" s="3" t="str">
+        <f>$D$4&amp;"_"&amp;B5</f>
         <v>MaterialIcon_1001</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2">
-        <v>200</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="3">
+        <v>200</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
         <v>1002</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D42" si="0">$D$4&amp;"_"&amp;A6</f>
+      <c r="D6" s="3" t="str">
+        <f>$D$4&amp;"_"&amp;B6</f>
         <v>MaterialIcon_1002</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2">
-        <v>200</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
+      <c r="G6" s="3">
+        <v>200</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
         <v>1003</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="D7" s="3" t="str">
+        <f t="shared" ref="D7:D40" si="0">$D$4&amp;"_"&amp;B7</f>
         <v>MaterialIcon_1003</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2">
-        <v>200</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="3">
+        <v>200</v>
+      </c>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
         <v>1004</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1004</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2">
-        <v>200</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3">
         <v>1005</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1005</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2">
-        <v>200</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1006</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MaterialIcon_1006</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2">
-        <v>200</v>
-      </c>
-      <c r="H10" s="2">
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1007</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3">
+        <v>200</v>
+      </c>
+      <c r="H11" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MaterialIcon_1007</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2">
-        <v>200</v>
-      </c>
-      <c r="H11" s="2">
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1008</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>1008</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MaterialIcon_1008</v>
-      </c>
-      <c r="G12" s="2">
-        <v>200</v>
-      </c>
-      <c r="H12" s="2">
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1009</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3">
+        <v>200</v>
+      </c>
+      <c r="H13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MaterialIcon_1009</v>
-      </c>
-      <c r="G13" s="2">
-        <v>200</v>
-      </c>
-      <c r="H13" s="2">
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1010</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>200</v>
+      </c>
+      <c r="H14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MaterialIcon_1010</v>
-      </c>
-      <c r="G14" s="2">
-        <v>200</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-    </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3">
         <v>1011</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1011</v>
       </c>
-      <c r="G15" s="2">
-        <v>200</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MaterialIcon_1012</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3">
+        <v>200</v>
+      </c>
+      <c r="H16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MaterialIcon_1012</v>
-      </c>
-      <c r="G16" s="2">
-        <v>200</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-    </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3">
         <v>1013</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1013</v>
       </c>
-      <c r="G17" s="2">
-        <v>200</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3">
         <v>1014</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1014</v>
       </c>
-      <c r="G18" s="2">
-        <v>200</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3">
         <v>1015</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1015</v>
       </c>
-      <c r="G19" s="2">
-        <v>200</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3">
+        <v>200</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3">
         <v>1016</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1016</v>
       </c>
-      <c r="G20" s="2">
-        <v>200</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="2">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3">
         <v>1017</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1017</v>
       </c>
-      <c r="G21" s="2">
-        <v>200</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2">
+      <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3">
         <v>1018</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1018</v>
       </c>
-      <c r="G22" s="2">
-        <v>200</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5</v>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3">
         <v>1019</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1019</v>
       </c>
-      <c r="G23" s="2">
-        <v>200</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5</v>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="3">
         <v>1020</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1020</v>
       </c>
-      <c r="G24" s="2">
-        <v>200</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="2">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="3">
         <v>1021</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1021</v>
       </c>
-      <c r="G25" s="2">
-        <v>200</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="3">
+        <v>200</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="2">
+      <c r="A26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3">
         <v>1022</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1022</v>
       </c>
-      <c r="G26" s="2">
-        <v>200</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2</v>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2">
+      <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="3">
         <v>1023</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1023</v>
       </c>
-      <c r="G27" s="2">
-        <v>200</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3">
         <v>1024</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1024</v>
       </c>
-      <c r="G28" s="2">
-        <v>200</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3">
+        <v>200</v>
+      </c>
+      <c r="H28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3">
         <v>1025</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1025</v>
       </c>
-      <c r="G29" s="2">
-        <v>200</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="3">
+        <v>200</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="3">
         <v>1026</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1026</v>
       </c>
-      <c r="G30" s="2">
-        <v>200</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="3">
+        <v>200</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="2">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="3">
         <v>1027</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1027</v>
       </c>
-      <c r="G31" s="2">
-        <v>200</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="E31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="3">
+        <v>200</v>
+      </c>
+      <c r="H31" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="2">
+      <c r="A32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="3">
         <v>1028</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1028</v>
       </c>
-      <c r="G32" s="2">
-        <v>200</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="E32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="3">
+        <v>200</v>
+      </c>
+      <c r="H32" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="2">
+      <c r="A33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="3">
         <v>1029</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1029</v>
       </c>
-      <c r="G33" s="2">
-        <v>200</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="2">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="3">
         <v>1030</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1030</v>
       </c>
-      <c r="G34" s="2">
-        <v>200</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="3">
+        <v>200</v>
+      </c>
+      <c r="H34" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="2">
+      <c r="A35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="3">
         <v>1031</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1031</v>
       </c>
-      <c r="G35" s="2">
-        <v>200</v>
-      </c>
-      <c r="H35" s="2">
-        <v>4</v>
+      <c r="E35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="2">
+      <c r="A36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="3">
         <v>1032</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1032</v>
       </c>
-      <c r="G36" s="2">
-        <v>200</v>
-      </c>
-      <c r="H36" s="2">
-        <v>4</v>
+      <c r="E36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="3">
+        <v>200</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="2">
+      <c r="A37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="3">
         <v>1033</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1033</v>
       </c>
-      <c r="G37" s="2">
-        <v>200</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="E37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="3">
+        <v>200</v>
+      </c>
+      <c r="H37" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="2">
+      <c r="A38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="3">
         <v>1034</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1034</v>
       </c>
-      <c r="G38" s="2">
-        <v>200</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="E38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="3">
+        <v>200</v>
+      </c>
+      <c r="H38" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2">
+      <c r="A39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="3">
         <v>1035</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1035</v>
       </c>
-      <c r="G39" s="2">
-        <v>200</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="E39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="3">
+        <v>200</v>
+      </c>
+      <c r="H39" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2">
+      <c r="A40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="3">
         <v>1036</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1036</v>
       </c>
-      <c r="G40" s="2">
-        <v>200</v>
-      </c>
-      <c r="H40" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="2">
-        <v>1037</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MaterialIcon_1037</v>
-      </c>
-      <c r="G41" s="2">
-        <v>200</v>
-      </c>
-      <c r="H41" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2">
-        <v>1038</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MaterialIcon_1038</v>
-      </c>
-      <c r="G42" s="2">
-        <v>200</v>
-      </c>
-      <c r="H42" s="2">
+      <c r="E40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="3">
+        <v>200</v>
+      </c>
+      <c r="H40" s="3">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:F15">
-    <sortCondition ref="A5"/>
+    <sortCondition ref="B5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11800"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,8 +306,8 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -333,7 +333,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +363,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,31 +399,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,7 +424,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,10 +438,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,37 +462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -468,9 +469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,187 +491,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,16 +700,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -726,6 +746,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,51 +793,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,145 +803,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,23 +1322,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.4545454545455" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.4537037037037" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4454545454545" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.7818181818182" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4444444444444" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.7777777777778" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.8727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.3363636363636" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.8703703703704" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.3333333333333" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,8 +306,8 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -333,29 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,7 +348,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,7 +371,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,7 +386,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,7 +416,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -416,15 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,9 +432,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,31 +461,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,187 +491,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,6 +700,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -711,11 +744,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,65 +789,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,7 +1322,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
   <si>
     <t>材料ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>材料icon</t>
   </si>
   <si>
+    <t>品质(道具名称及道具框颜色，1-红色，2-紫色，3-黑色)</t>
+  </si>
+  <si>
     <t>材料描述</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>MaterialIcon</t>
   </si>
   <si>
+    <t>Quality</t>
+  </si>
+  <si>
     <t>MaterialDsc</t>
   </si>
   <si>
@@ -79,9 +85,6 @@
     <t>A good thing.</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>石材</t>
   </si>
   <si>
@@ -106,9 +109,6 @@
     <t>Steel</t>
   </si>
   <si>
-    <t>Spirit</t>
-  </si>
-  <si>
     <t>钢</t>
   </si>
   <si>
@@ -296,6 +296,66 @@
   </si>
   <si>
     <t>番茄</t>
+  </si>
+  <si>
+    <t>Fragment1</t>
+  </si>
+  <si>
+    <t>英雄1碎片</t>
+  </si>
+  <si>
+    <t>Fragment2</t>
+  </si>
+  <si>
+    <t>英雄2碎片</t>
+  </si>
+  <si>
+    <t>Fragment3</t>
+  </si>
+  <si>
+    <t>英雄3碎片</t>
+  </si>
+  <si>
+    <t>Fragment4</t>
+  </si>
+  <si>
+    <t>英雄4碎片</t>
+  </si>
+  <si>
+    <t>Fragment5</t>
+  </si>
+  <si>
+    <t>英雄5碎片</t>
+  </si>
+  <si>
+    <t>Fragment6</t>
+  </si>
+  <si>
+    <t>英雄6碎片</t>
+  </si>
+  <si>
+    <t>Fragment7</t>
+  </si>
+  <si>
+    <t>英雄7碎片</t>
+  </si>
+  <si>
+    <t>Fragment8</t>
+  </si>
+  <si>
+    <t>英雄8碎片</t>
+  </si>
+  <si>
+    <t>Fragment9</t>
+  </si>
+  <si>
+    <t>英雄9碎片</t>
+  </si>
+  <si>
+    <t>Fragment10</t>
+  </si>
+  <si>
+    <t>英雄10碎片</t>
   </si>
 </sst>
 </file>
@@ -303,10 +363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -339,6 +399,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -355,10 +469,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,69 +484,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,7 +522,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -470,7 +530,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,25 +557,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,31 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,115 +707,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,11 +775,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,36 +825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -792,6 +843,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -803,7 +863,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -815,137 +875,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -956,6 +1016,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -968,8 +1031,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1317,28 +1380,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:B18"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.4537037037037" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.4444444444444" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.7777777777778" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.8703703703704" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="14.2222222222222" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.8703703703704" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1412,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1357,1065 +1421,1393 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>$C$4&amp;"_"&amp;A5</f>
         <v>MaterialIcon_1001</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>$C$4&amp;"_"&amp;A6</f>
         <v>MaterialIcon_1002</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" ref="C7:C40" si="0">$C$4&amp;"_"&amp;A7</f>
         <v>MaterialIcon_1003</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1004</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1005</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1006</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1007</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
+        <v>200</v>
+      </c>
+      <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1008</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" s="2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1009</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
+        <v>200</v>
+      </c>
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1010</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="2">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1011</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
+        <v>200</v>
+      </c>
+      <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="2">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1012</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
+        <v>200</v>
+      </c>
+      <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>1013</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1013</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>1014</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1014</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
+        <v>200</v>
+      </c>
+      <c r="H18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>1015</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1015</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2">
+        <v>200</v>
+      </c>
+      <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="2">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>1016</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1016</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>1017</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1017</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2">
+        <v>200</v>
+      </c>
+      <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="2">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>1018</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1018</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2">
+        <v>200</v>
+      </c>
+      <c r="H22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>1019</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1019</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2">
+        <v>200</v>
+      </c>
+      <c r="H23" s="2">
         <v>2</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23" s="2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>1020</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1020</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2">
+        <v>200</v>
+      </c>
+      <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="J24" s="2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>1021</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1021</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2">
+        <v>200</v>
+      </c>
+      <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="J25" s="2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>1022</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1022</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2">
+        <v>200</v>
+      </c>
+      <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" s="2">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>1023</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1023</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2">
+        <v>200</v>
+      </c>
+      <c r="H27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" s="2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>1024</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1024</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2">
+        <v>200</v>
+      </c>
+      <c r="H28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>1025</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1025</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2">
+        <v>200</v>
+      </c>
+      <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" s="2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>1026</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1026</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2">
+        <v>200</v>
+      </c>
+      <c r="H30" s="2">
         <v>4</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" s="2">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>1027</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1027</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2">
+        <v>200</v>
+      </c>
+      <c r="H31" s="2">
         <v>4</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="2">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>1028</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1028</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2">
+        <v>200</v>
+      </c>
+      <c r="H32" s="2">
         <v>4</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>1029</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1029</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2">
+        <v>200</v>
+      </c>
+      <c r="H33" s="2">
         <v>4</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33" s="2">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>1030</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1030</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2">
+        <v>200</v>
+      </c>
+      <c r="H34" s="2">
         <v>4</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>1031</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1031</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2">
+        <v>200</v>
+      </c>
+      <c r="H35" s="2">
         <v>3</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35" s="2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>1032</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1032</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2">
+        <v>200</v>
+      </c>
+      <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="J36" s="2">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>1033</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1033</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2">
+        <v>200</v>
+      </c>
+      <c r="H37" s="2">
         <v>3</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J37" s="2">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>1034</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1034</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2">
+        <v>200</v>
+      </c>
+      <c r="H38" s="2">
         <v>3</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="J38" s="2">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>1035</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1035</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2">
+        <v>200</v>
+      </c>
+      <c r="H39" s="2">
         <v>3</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="J39" s="2">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>1036</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1036</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="2">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2">
+        <v>200</v>
+      </c>
+      <c r="H40" s="2">
         <v>3</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="J40" s="2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" ref="C41:C50" si="1">$C$4&amp;"_"&amp;A41</f>
+        <v>MaterialIcon_1037</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>200</v>
+      </c>
+      <c r="H41" s="2">
+        <v>7</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>1038</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MaterialIcon_1038</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>200</v>
+      </c>
+      <c r="H42" s="2">
+        <v>8</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>1039</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MaterialIcon_1039</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>200</v>
+      </c>
+      <c r="H43" s="2">
+        <v>9</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>1040</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MaterialIcon_1040</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>200</v>
+      </c>
+      <c r="H44" s="2">
+        <v>10</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
+        <v>1041</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MaterialIcon_1041</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>200</v>
+      </c>
+      <c r="H45" s="2">
+        <v>11</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
+        <v>1042</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MaterialIcon_1042</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>200</v>
+      </c>
+      <c r="H46" s="2">
+        <v>12</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>1043</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MaterialIcon_1043</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>200</v>
+      </c>
+      <c r="H47" s="2">
+        <v>13</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>1044</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MaterialIcon_1044</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>200</v>
+      </c>
+      <c r="H48" s="2">
+        <v>14</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>1045</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MaterialIcon_1045</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>200</v>
+      </c>
+      <c r="H49" s="2">
+        <v>15</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>1046</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MaterialIcon_1046</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>200</v>
+      </c>
+      <c r="H50" s="2">
+        <v>16</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1046</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F15">
+  <sortState ref="A3:G15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -363,10 +363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -392,8 +392,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,15 +490,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -431,15 +505,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,83 +530,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,13 +551,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,67 +647,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,97 +719,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,6 +761,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -775,17 +817,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,15 +849,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -824,49 +857,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,133 +875,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,7 +1385,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1532,7 +1532,6 @@
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>200</v>
       </c>
@@ -1560,7 +1559,6 @@
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>200</v>
       </c>
@@ -1588,7 +1586,6 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>200</v>
       </c>
@@ -1616,7 +1613,6 @@
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>200</v>
       </c>
@@ -1644,7 +1640,6 @@
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>200</v>
       </c>
@@ -1672,7 +1667,6 @@
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2">
         <v>200</v>
       </c>
@@ -1700,7 +1694,6 @@
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>200</v>
       </c>
@@ -1728,7 +1721,6 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>200</v>
       </c>
@@ -1756,7 +1748,6 @@
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>200</v>
       </c>
@@ -1784,7 +1775,6 @@
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>200</v>
       </c>
@@ -1812,7 +1802,6 @@
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2"/>
       <c r="G15" s="2">
         <v>200</v>
       </c>
@@ -1840,7 +1829,6 @@
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="2"/>
       <c r="G16" s="2">
         <v>200</v>
       </c>
@@ -1868,7 +1856,6 @@
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="2"/>
       <c r="G17" s="2">
         <v>200</v>
       </c>
@@ -1896,7 +1883,6 @@
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="2"/>
       <c r="G18" s="2">
         <v>200</v>
       </c>
@@ -1924,7 +1910,6 @@
       <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2"/>
       <c r="G19" s="2">
         <v>200</v>
       </c>
@@ -1952,7 +1937,6 @@
       <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="2"/>
       <c r="G20" s="2">
         <v>200</v>
       </c>
@@ -1980,7 +1964,6 @@
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>200</v>
       </c>
@@ -2008,7 +1991,6 @@
       <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="2"/>
       <c r="G22" s="2">
         <v>200</v>
       </c>
@@ -2036,7 +2018,6 @@
       <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="2"/>
       <c r="G23" s="2">
         <v>200</v>
       </c>
@@ -2064,7 +2045,6 @@
       <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="2"/>
       <c r="G24" s="2">
         <v>200</v>
       </c>
@@ -2092,7 +2072,6 @@
       <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="2"/>
       <c r="G25" s="2">
         <v>200</v>
       </c>
@@ -2120,7 +2099,6 @@
       <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="2"/>
       <c r="G26" s="2">
         <v>200</v>
       </c>
@@ -2148,7 +2126,6 @@
       <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="2"/>
       <c r="G27" s="2">
         <v>200</v>
       </c>
@@ -2176,7 +2153,6 @@
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="2"/>
       <c r="G28" s="2">
         <v>200</v>
       </c>
@@ -2204,7 +2180,6 @@
       <c r="E29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="2"/>
       <c r="G29" s="2">
         <v>200</v>
       </c>
@@ -2232,7 +2207,6 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="2"/>
       <c r="G30" s="2">
         <v>200</v>
       </c>
@@ -2260,7 +2234,6 @@
       <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="2"/>
       <c r="G31" s="2">
         <v>200</v>
       </c>
@@ -2288,7 +2261,6 @@
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="2"/>
       <c r="G32" s="2">
         <v>200</v>
       </c>
@@ -2316,7 +2288,6 @@
       <c r="E33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="2"/>
       <c r="G33" s="2">
         <v>200</v>
       </c>
@@ -2344,7 +2315,6 @@
       <c r="E34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="2"/>
       <c r="G34" s="2">
         <v>200</v>
       </c>
@@ -2372,7 +2342,6 @@
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="2"/>
       <c r="G35" s="2">
         <v>200</v>
       </c>
@@ -2400,7 +2369,6 @@
       <c r="E36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="2"/>
       <c r="G36" s="2">
         <v>200</v>
       </c>
@@ -2428,7 +2396,6 @@
       <c r="E37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="2"/>
       <c r="G37" s="2">
         <v>200</v>
       </c>
@@ -2456,7 +2423,6 @@
       <c r="E38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="2"/>
       <c r="G38" s="2">
         <v>200</v>
       </c>
@@ -2484,7 +2450,6 @@
       <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="2"/>
       <c r="G39" s="2">
         <v>200</v>
       </c>
@@ -2512,7 +2477,6 @@
       <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="2"/>
       <c r="G40" s="2">
         <v>200</v>
       </c>
@@ -2540,7 +2504,6 @@
       <c r="E41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="2"/>
       <c r="G41" s="2">
         <v>200</v>
       </c>
@@ -2568,7 +2531,6 @@
       <c r="E42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="2"/>
       <c r="G42" s="2">
         <v>200</v>
       </c>
@@ -2596,7 +2558,6 @@
       <c r="E43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="2"/>
       <c r="G43" s="2">
         <v>200</v>
       </c>
@@ -2624,7 +2585,6 @@
       <c r="E44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="2"/>
       <c r="G44" s="2">
         <v>200</v>
       </c>
@@ -2652,7 +2612,6 @@
       <c r="E45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="2"/>
       <c r="G45" s="2">
         <v>200</v>
       </c>
@@ -2680,7 +2639,6 @@
       <c r="E46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="2"/>
       <c r="G46" s="2">
         <v>200</v>
       </c>
@@ -2708,7 +2666,6 @@
       <c r="E47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="2"/>
       <c r="G47" s="2">
         <v>200</v>
       </c>
@@ -2736,7 +2693,6 @@
       <c r="E48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="2"/>
       <c r="G48" s="2">
         <v>200</v>
       </c>
@@ -2764,7 +2720,6 @@
       <c r="E49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="2"/>
       <c r="G49" s="2">
         <v>200</v>
       </c>
@@ -2792,7 +2747,6 @@
       <c r="E50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="2"/>
       <c r="G50" s="2">
         <v>200</v>
       </c>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -363,9 +363,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -392,24 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,14 +408,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,8 +436,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +461,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,23 +483,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -505,9 +499,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,21 +535,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -551,187 +551,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,6 +760,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -775,11 +784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,24 +810,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,27 +857,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,133 +875,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,7 +1385,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
   <si>
     <t>材料ID</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>OutputWay</t>
+  </si>
+  <si>
+    <t>MaterialName1</t>
   </si>
   <si>
     <t>Stone</t>
@@ -364,10 +367,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -392,6 +395,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -400,10 +465,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,15 +494,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,61 +518,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -507,7 +526,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,22 +538,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -551,25 +554,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,43 +692,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,109 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,11 +763,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,36 +829,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,32 +852,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,7 +869,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,133 +878,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,7 +1388,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1515,7 +1518,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1523,14 +1526,14 @@
         <v>1001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>$C$4&amp;"_"&amp;A5</f>
         <v>MaterialIcon_1001</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2">
         <v>200</v>
@@ -1539,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2">
         <v>1001</v>
@@ -1550,14 +1553,14 @@
         <v>1002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>$C$4&amp;"_"&amp;A6</f>
         <v>MaterialIcon_1002</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2">
         <v>200</v>
@@ -1566,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2">
         <v>1002</v>
@@ -1577,14 +1580,14 @@
         <v>1003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" ref="C7:C40" si="0">$C$4&amp;"_"&amp;A7</f>
         <v>MaterialIcon_1003</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
@@ -1593,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2">
         <v>1003</v>
@@ -1604,14 +1607,14 @@
         <v>1004</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1004</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2">
         <v>200</v>
@@ -1620,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2">
         <v>1004</v>
@@ -1631,14 +1634,14 @@
         <v>1005</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1005</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2">
         <v>200</v>
@@ -1647,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2">
         <v>1005</v>
@@ -1658,14 +1661,14 @@
         <v>1006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1006</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2">
         <v>200</v>
@@ -1674,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2">
         <v>1006</v>
@@ -1685,14 +1688,14 @@
         <v>1007</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1007</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2">
         <v>200</v>
@@ -1701,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" s="2">
         <v>1007</v>
@@ -1712,14 +1715,14 @@
         <v>1008</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1008</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2">
         <v>200</v>
@@ -1728,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="2">
         <v>1008</v>
@@ -1739,14 +1742,14 @@
         <v>1009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1009</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2">
         <v>200</v>
@@ -1755,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2">
         <v>1009</v>
@@ -1766,14 +1769,14 @@
         <v>1010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1010</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2">
         <v>200</v>
@@ -1782,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14" s="2">
         <v>1010</v>
@@ -1793,14 +1796,14 @@
         <v>1011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1011</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2">
         <v>200</v>
@@ -1809,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" s="2">
         <v>1011</v>
@@ -1820,14 +1823,14 @@
         <v>1012</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1012</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2">
         <v>200</v>
@@ -1836,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2">
         <v>1012</v>
@@ -1847,14 +1850,14 @@
         <v>1013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1013</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2">
         <v>200</v>
@@ -1863,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2">
         <v>1013</v>
@@ -1874,14 +1877,14 @@
         <v>1014</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1014</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2">
         <v>200</v>
@@ -1890,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J18" s="2">
         <v>1014</v>
@@ -1901,14 +1904,14 @@
         <v>1015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1015</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2">
         <v>200</v>
@@ -1917,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J19" s="2">
         <v>1015</v>
@@ -1928,14 +1931,14 @@
         <v>1016</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1016</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2">
         <v>200</v>
@@ -1944,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20" s="2">
         <v>1016</v>
@@ -1955,14 +1958,14 @@
         <v>1017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1017</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2">
         <v>200</v>
@@ -1971,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21" s="2">
         <v>1017</v>
@@ -1982,14 +1985,14 @@
         <v>1018</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1018</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2">
         <v>200</v>
@@ -1998,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22" s="2">
         <v>1018</v>
@@ -2009,14 +2012,14 @@
         <v>1019</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1019</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="2">
         <v>200</v>
@@ -2025,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J23" s="2">
         <v>1019</v>
@@ -2036,14 +2039,14 @@
         <v>1020</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1020</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="2">
         <v>200</v>
@@ -2052,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J24" s="2">
         <v>1020</v>
@@ -2063,14 +2066,14 @@
         <v>1021</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1021</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2">
         <v>200</v>
@@ -2079,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J25" s="2">
         <v>1021</v>
@@ -2090,14 +2093,14 @@
         <v>1022</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1022</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2">
         <v>200</v>
@@ -2106,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J26" s="2">
         <v>1022</v>
@@ -2117,14 +2120,14 @@
         <v>1023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1023</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="2">
         <v>200</v>
@@ -2133,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J27" s="2">
         <v>1023</v>
@@ -2144,14 +2147,14 @@
         <v>1024</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1024</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" s="2">
         <v>200</v>
@@ -2160,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J28" s="2">
         <v>1024</v>
@@ -2171,14 +2174,14 @@
         <v>1025</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1025</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="2">
         <v>200</v>
@@ -2187,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J29" s="2">
         <v>1025</v>
@@ -2198,14 +2201,14 @@
         <v>1026</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1026</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" s="2">
         <v>200</v>
@@ -2214,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J30" s="2">
         <v>1026</v>
@@ -2225,14 +2228,14 @@
         <v>1027</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1027</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="2">
         <v>200</v>
@@ -2241,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" s="2">
         <v>1027</v>
@@ -2252,14 +2255,14 @@
         <v>1028</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1028</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32" s="2">
         <v>200</v>
@@ -2268,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" s="2">
         <v>1028</v>
@@ -2279,14 +2282,14 @@
         <v>1029</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1029</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G33" s="2">
         <v>200</v>
@@ -2295,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J33" s="2">
         <v>1029</v>
@@ -2306,14 +2309,14 @@
         <v>1030</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1030</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" s="2">
         <v>200</v>
@@ -2322,7 +2325,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J34" s="2">
         <v>1030</v>
@@ -2333,14 +2336,14 @@
         <v>1031</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1031</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G35" s="2">
         <v>200</v>
@@ -2349,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" s="2">
         <v>1031</v>
@@ -2360,14 +2363,14 @@
         <v>1032</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1032</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G36" s="2">
         <v>200</v>
@@ -2376,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36" s="2">
         <v>1032</v>
@@ -2387,14 +2390,14 @@
         <v>1033</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1033</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" s="2">
         <v>200</v>
@@ -2403,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J37" s="2">
         <v>1033</v>
@@ -2414,14 +2417,14 @@
         <v>1034</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1034</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G38" s="2">
         <v>200</v>
@@ -2430,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J38" s="2">
         <v>1034</v>
@@ -2441,14 +2444,14 @@
         <v>1035</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1035</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" s="2">
         <v>200</v>
@@ -2457,7 +2460,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J39" s="2">
         <v>1035</v>
@@ -2468,14 +2471,14 @@
         <v>1036</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1036</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" s="2">
         <v>200</v>
@@ -2484,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J40" s="2">
         <v>1036</v>
@@ -2495,14 +2498,14 @@
         <v>1037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" ref="C41:C50" si="1">$C$4&amp;"_"&amp;A41</f>
         <v>MaterialIcon_1037</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G41" s="2">
         <v>200</v>
@@ -2511,7 +2514,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J41" s="2">
         <v>1037</v>
@@ -2522,14 +2525,14 @@
         <v>1038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1038</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G42" s="2">
         <v>200</v>
@@ -2538,7 +2541,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J42" s="2">
         <v>1038</v>
@@ -2549,14 +2552,14 @@
         <v>1039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1039</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G43" s="2">
         <v>200</v>
@@ -2565,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J43" s="2">
         <v>1039</v>
@@ -2576,14 +2579,14 @@
         <v>1040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1040</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2">
         <v>200</v>
@@ -2592,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J44" s="2">
         <v>1040</v>
@@ -2603,14 +2606,14 @@
         <v>1041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1041</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G45" s="2">
         <v>200</v>
@@ -2619,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J45" s="2">
         <v>1041</v>
@@ -2630,14 +2633,14 @@
         <v>1042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1042</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" s="2">
         <v>200</v>
@@ -2646,7 +2649,7 @@
         <v>12</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J46" s="2">
         <v>1042</v>
@@ -2657,14 +2660,14 @@
         <v>1043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1043</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" s="2">
         <v>200</v>
@@ -2673,7 +2676,7 @@
         <v>13</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J47" s="2">
         <v>1043</v>
@@ -2684,14 +2687,14 @@
         <v>1044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1044</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G48" s="2">
         <v>200</v>
@@ -2700,7 +2703,7 @@
         <v>14</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J48" s="2">
         <v>1044</v>
@@ -2711,14 +2714,14 @@
         <v>1045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1045</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="2">
         <v>200</v>
@@ -2727,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J49" s="2">
         <v>1045</v>
@@ -2738,14 +2741,14 @@
         <v>1046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1046</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="2">
         <v>200</v>
@@ -2754,7 +2757,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J50" s="2">
         <v>1046</v>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="117">
   <si>
     <t>材料ID</t>
   </si>
@@ -28,13 +28,13 @@
     <t>材料icon</t>
   </si>
   <si>
-    <t>品质(道具名称及道具框颜色，1-红色，2-紫色，3-黑色)</t>
+    <t>品质(白色-普通-Normal；绿色-进阶-Advanced；蓝色-稀有-Rare；紫色-史诗-Epic；红色-传说-Legendary；金色-不朽-Immortal)</t>
   </si>
   <si>
     <t>材料描述</t>
   </si>
   <si>
-    <t>材料类型</t>
+    <t>材料类型（HeroesPiece-英雄碎片，Material-材料）</t>
   </si>
   <si>
     <t>出售价格</t>
@@ -85,9 +85,15 @@
     <t>Stone</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
     <t>A good thing.</t>
   </si>
   <si>
+    <t>Material</t>
+  </si>
+  <si>
     <t>石材</t>
   </si>
   <si>
@@ -302,6 +308,9 @@
   </si>
   <si>
     <t>Fragment1</t>
+  </si>
+  <si>
+    <t>HeroesPiece</t>
   </si>
   <si>
     <t>英雄1碎片</t>
@@ -366,11 +375,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -395,54 +404,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -457,8 +440,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,9 +458,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,7 +472,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,22 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -518,10 +502,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,6 +531,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -554,19 +563,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,163 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,52 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,16 +803,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,11 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,10 +875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,133 +887,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,9 +1395,9 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1532,8 +1541,14 @@
         <f>$C$4&amp;"_"&amp;A5</f>
         <v>MaterialIcon_1001</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>200</v>
@@ -1542,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2">
         <v>1001</v>
@@ -1553,14 +1568,20 @@
         <v>1002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>$C$4&amp;"_"&amp;A6</f>
         <v>MaterialIcon_1002</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>200</v>
@@ -1569,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2">
         <v>1002</v>
@@ -1580,14 +1601,20 @@
         <v>1003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" ref="C7:C40" si="0">$C$4&amp;"_"&amp;A7</f>
         <v>MaterialIcon_1003</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
@@ -1596,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2">
         <v>1003</v>
@@ -1607,14 +1634,20 @@
         <v>1004</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1004</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="2">
         <v>200</v>
@@ -1623,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2">
         <v>1004</v>
@@ -1634,14 +1667,20 @@
         <v>1005</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1005</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="2">
         <v>200</v>
@@ -1650,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2">
         <v>1005</v>
@@ -1661,14 +1700,20 @@
         <v>1006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1006</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="2">
         <v>200</v>
@@ -1677,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2">
         <v>1006</v>
@@ -1688,14 +1733,20 @@
         <v>1007</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1007</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="2">
         <v>200</v>
@@ -1704,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2">
         <v>1007</v>
@@ -1715,14 +1766,20 @@
         <v>1008</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1008</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G12" s="2">
         <v>200</v>
@@ -1731,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2">
         <v>1008</v>
@@ -1742,14 +1799,20 @@
         <v>1009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1009</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="2">
         <v>200</v>
@@ -1758,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2">
         <v>1009</v>
@@ -1769,14 +1832,20 @@
         <v>1010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1010</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="2">
         <v>200</v>
@@ -1785,7 +1854,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J14" s="2">
         <v>1010</v>
@@ -1796,14 +1865,20 @@
         <v>1011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1011</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="2">
         <v>200</v>
@@ -1812,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2">
         <v>1011</v>
@@ -1823,14 +1898,20 @@
         <v>1012</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1012</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="2">
         <v>200</v>
@@ -1839,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2">
         <v>1012</v>
@@ -1850,14 +1931,20 @@
         <v>1013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1013</v>
       </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G17" s="2">
         <v>200</v>
@@ -1866,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J17" s="2">
         <v>1013</v>
@@ -1877,14 +1964,20 @@
         <v>1014</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1014</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G18" s="2">
         <v>200</v>
@@ -1893,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J18" s="2">
         <v>1014</v>
@@ -1904,14 +1997,20 @@
         <v>1015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1015</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="2">
         <v>200</v>
@@ -1920,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J19" s="2">
         <v>1015</v>
@@ -1931,14 +2030,20 @@
         <v>1016</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1016</v>
       </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="2">
         <v>200</v>
@@ -1947,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J20" s="2">
         <v>1016</v>
@@ -1958,14 +2063,20 @@
         <v>1017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1017</v>
       </c>
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G21" s="2">
         <v>200</v>
@@ -1974,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J21" s="2">
         <v>1017</v>
@@ -1985,14 +2096,20 @@
         <v>1018</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1018</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G22" s="2">
         <v>200</v>
@@ -2001,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J22" s="2">
         <v>1018</v>
@@ -2012,14 +2129,20 @@
         <v>1019</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1019</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G23" s="2">
         <v>200</v>
@@ -2028,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J23" s="2">
         <v>1019</v>
@@ -2039,14 +2162,20 @@
         <v>1020</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1020</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G24" s="2">
         <v>200</v>
@@ -2055,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J24" s="2">
         <v>1020</v>
@@ -2066,14 +2195,20 @@
         <v>1021</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1021</v>
       </c>
+      <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G25" s="2">
         <v>200</v>
@@ -2082,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J25" s="2">
         <v>1021</v>
@@ -2093,14 +2228,20 @@
         <v>1022</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1022</v>
       </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G26" s="2">
         <v>200</v>
@@ -2109,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J26" s="2">
         <v>1022</v>
@@ -2120,14 +2261,20 @@
         <v>1023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1023</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G27" s="2">
         <v>200</v>
@@ -2136,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J27" s="2">
         <v>1023</v>
@@ -2147,14 +2294,20 @@
         <v>1024</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1024</v>
       </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G28" s="2">
         <v>200</v>
@@ -2163,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J28" s="2">
         <v>1024</v>
@@ -2174,14 +2327,20 @@
         <v>1025</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1025</v>
       </c>
+      <c r="D29" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="2">
         <v>200</v>
@@ -2190,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J29" s="2">
         <v>1025</v>
@@ -2201,14 +2360,20 @@
         <v>1026</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1026</v>
       </c>
+      <c r="D30" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G30" s="2">
         <v>200</v>
@@ -2217,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J30" s="2">
         <v>1026</v>
@@ -2228,14 +2393,20 @@
         <v>1027</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1027</v>
       </c>
+      <c r="D31" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G31" s="2">
         <v>200</v>
@@ -2244,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J31" s="2">
         <v>1027</v>
@@ -2255,14 +2426,20 @@
         <v>1028</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1028</v>
       </c>
+      <c r="D32" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G32" s="2">
         <v>200</v>
@@ -2271,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J32" s="2">
         <v>1028</v>
@@ -2282,14 +2459,20 @@
         <v>1029</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1029</v>
       </c>
+      <c r="D33" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G33" s="2">
         <v>200</v>
@@ -2298,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J33" s="2">
         <v>1029</v>
@@ -2309,14 +2492,20 @@
         <v>1030</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1030</v>
       </c>
+      <c r="D34" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G34" s="2">
         <v>200</v>
@@ -2325,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J34" s="2">
         <v>1030</v>
@@ -2336,14 +2525,20 @@
         <v>1031</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1031</v>
       </c>
+      <c r="D35" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G35" s="2">
         <v>200</v>
@@ -2352,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J35" s="2">
         <v>1031</v>
@@ -2363,14 +2558,20 @@
         <v>1032</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1032</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G36" s="2">
         <v>200</v>
@@ -2379,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J36" s="2">
         <v>1032</v>
@@ -2390,14 +2591,20 @@
         <v>1033</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1033</v>
       </c>
+      <c r="D37" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="2">
         <v>200</v>
@@ -2406,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J37" s="2">
         <v>1033</v>
@@ -2417,14 +2624,20 @@
         <v>1034</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1034</v>
       </c>
+      <c r="D38" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G38" s="2">
         <v>200</v>
@@ -2433,7 +2646,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J38" s="2">
         <v>1034</v>
@@ -2444,14 +2657,20 @@
         <v>1035</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1035</v>
       </c>
+      <c r="D39" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G39" s="2">
         <v>200</v>
@@ -2460,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J39" s="2">
         <v>1035</v>
@@ -2471,14 +2690,20 @@
         <v>1036</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1036</v>
       </c>
+      <c r="D40" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G40" s="2">
         <v>200</v>
@@ -2487,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J40" s="2">
         <v>1036</v>
@@ -2498,14 +2723,20 @@
         <v>1037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" ref="C41:C50" si="1">$C$4&amp;"_"&amp;A41</f>
         <v>MaterialIcon_1037</v>
       </c>
+      <c r="D41" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G41" s="2">
         <v>200</v>
@@ -2514,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J41" s="2">
         <v>1037</v>
@@ -2525,14 +2756,20 @@
         <v>1038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1038</v>
       </c>
+      <c r="D42" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G42" s="2">
         <v>200</v>
@@ -2541,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J42" s="2">
         <v>1038</v>
@@ -2552,14 +2789,20 @@
         <v>1039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1039</v>
       </c>
+      <c r="D43" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G43" s="2">
         <v>200</v>
@@ -2568,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J43" s="2">
         <v>1039</v>
@@ -2579,14 +2822,20 @@
         <v>1040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1040</v>
       </c>
+      <c r="D44" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G44" s="2">
         <v>200</v>
@@ -2595,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J44" s="2">
         <v>1040</v>
@@ -2606,14 +2855,20 @@
         <v>1041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1041</v>
       </c>
+      <c r="D45" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G45" s="2">
         <v>200</v>
@@ -2622,7 +2877,7 @@
         <v>11</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J45" s="2">
         <v>1041</v>
@@ -2633,14 +2888,20 @@
         <v>1042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1042</v>
       </c>
+      <c r="D46" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G46" s="2">
         <v>200</v>
@@ -2649,7 +2910,7 @@
         <v>12</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J46" s="2">
         <v>1042</v>
@@ -2660,14 +2921,20 @@
         <v>1043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1043</v>
       </c>
+      <c r="D47" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G47" s="2">
         <v>200</v>
@@ -2676,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J47" s="2">
         <v>1043</v>
@@ -2687,14 +2954,20 @@
         <v>1044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1044</v>
       </c>
+      <c r="D48" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G48" s="2">
         <v>200</v>
@@ -2703,7 +2976,7 @@
         <v>14</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J48" s="2">
         <v>1044</v>
@@ -2714,14 +2987,20 @@
         <v>1045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1045</v>
       </c>
+      <c r="D49" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E49" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G49" s="2">
         <v>200</v>
@@ -2730,7 +3009,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J49" s="2">
         <v>1045</v>
@@ -2741,14 +3020,20 @@
         <v>1046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1046</v>
       </c>
+      <c r="D50" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E50" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G50" s="2">
         <v>200</v>
@@ -2757,7 +3042,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J50" s="2">
         <v>1046</v>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -67,7 +67,7 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>MaterialDsc</t>
+    <t>MaterialDesc</t>
   </si>
   <si>
     <t>MaterialType</t>
@@ -310,7 +310,7 @@
     <t>Fragment1</t>
   </si>
   <si>
-    <t>HeroesPiece</t>
+    <t>HeroChip</t>
   </si>
   <si>
     <t>英雄1碎片</t>
@@ -375,11 +375,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -406,7 +406,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +433,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -435,6 +443,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,36 +473,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,15 +510,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,6 +533,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -563,73 +563,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,109 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,32 +772,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,6 +807,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -837,20 +831,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,16 +860,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,137 +887,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1041,6 +1041,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1395,9 +1398,9 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2735,7 +2738,7 @@
       <c r="E41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="2">
@@ -2744,7 +2747,7 @@
       <c r="H41" s="2">
         <v>7</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="10" t="s">
         <v>98</v>
       </c>
       <c r="J41" s="2">
@@ -2768,7 +2771,7 @@
       <c r="E42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G42" s="2">
@@ -2777,7 +2780,7 @@
       <c r="H42" s="2">
         <v>8</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="10" t="s">
         <v>100</v>
       </c>
       <c r="J42" s="2">
@@ -2801,7 +2804,7 @@
       <c r="E43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G43" s="2">
@@ -2810,7 +2813,7 @@
       <c r="H43" s="2">
         <v>9</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="10" t="s">
         <v>102</v>
       </c>
       <c r="J43" s="2">
@@ -2834,7 +2837,7 @@
       <c r="E44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G44" s="2">
@@ -2843,7 +2846,7 @@
       <c r="H44" s="2">
         <v>10</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="10" t="s">
         <v>104</v>
       </c>
       <c r="J44" s="2">
@@ -2867,7 +2870,7 @@
       <c r="E45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G45" s="2">
@@ -2876,7 +2879,7 @@
       <c r="H45" s="2">
         <v>11</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="10" t="s">
         <v>106</v>
       </c>
       <c r="J45" s="2">
@@ -2900,7 +2903,7 @@
       <c r="E46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G46" s="2">
@@ -2909,7 +2912,7 @@
       <c r="H46" s="2">
         <v>12</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="10" t="s">
         <v>108</v>
       </c>
       <c r="J46" s="2">
@@ -2933,7 +2936,7 @@
       <c r="E47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G47" s="2">
@@ -2942,7 +2945,7 @@
       <c r="H47" s="2">
         <v>13</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="10" t="s">
         <v>110</v>
       </c>
       <c r="J47" s="2">
@@ -2966,7 +2969,7 @@
       <c r="E48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G48" s="2">
@@ -2975,7 +2978,7 @@
       <c r="H48" s="2">
         <v>14</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="10" t="s">
         <v>112</v>
       </c>
       <c r="J48" s="2">
@@ -2999,7 +3002,7 @@
       <c r="E49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G49" s="2">
@@ -3008,7 +3011,7 @@
       <c r="H49" s="2">
         <v>15</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="10" t="s">
         <v>114</v>
       </c>
       <c r="J49" s="2">
@@ -3032,7 +3035,7 @@
       <c r="E50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G50" s="2">
@@ -3041,7 +3044,7 @@
       <c r="H50" s="2">
         <v>16</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="10" t="s">
         <v>116</v>
       </c>
       <c r="J50" s="2">

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -376,10 +376,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -404,28 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -433,7 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -449,14 +426,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,6 +450,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +512,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -535,7 +535,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,61 +563,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,121 +725,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,15 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -792,17 +783,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,6 +811,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -842,6 +831,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,10 +875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,137 +887,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1041,9 +1041,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1400,7 +1397,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1486,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -2738,7 +2735,7 @@
       <c r="E41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="2">
@@ -2747,7 +2744,7 @@
       <c r="H41" s="2">
         <v>7</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="9" t="s">
         <v>98</v>
       </c>
       <c r="J41" s="2">
@@ -2771,7 +2768,7 @@
       <c r="E42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G42" s="2">
@@ -2780,7 +2777,7 @@
       <c r="H42" s="2">
         <v>8</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>100</v>
       </c>
       <c r="J42" s="2">
@@ -2804,7 +2801,7 @@
       <c r="E43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G43" s="2">
@@ -2813,7 +2810,7 @@
       <c r="H43" s="2">
         <v>9</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>102</v>
       </c>
       <c r="J43" s="2">
@@ -2837,7 +2834,7 @@
       <c r="E44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G44" s="2">
@@ -2846,7 +2843,7 @@
       <c r="H44" s="2">
         <v>10</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="9" t="s">
         <v>104</v>
       </c>
       <c r="J44" s="2">
@@ -2870,7 +2867,7 @@
       <c r="E45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G45" s="2">
@@ -2879,7 +2876,7 @@
       <c r="H45" s="2">
         <v>11</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="9" t="s">
         <v>106</v>
       </c>
       <c r="J45" s="2">
@@ -2903,7 +2900,7 @@
       <c r="E46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G46" s="2">
@@ -2912,7 +2909,7 @@
       <c r="H46" s="2">
         <v>12</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="9" t="s">
         <v>108</v>
       </c>
       <c r="J46" s="2">
@@ -2936,7 +2933,7 @@
       <c r="E47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G47" s="2">
@@ -2945,7 +2942,7 @@
       <c r="H47" s="2">
         <v>13</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="9" t="s">
         <v>110</v>
       </c>
       <c r="J47" s="2">
@@ -2969,7 +2966,7 @@
       <c r="E48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G48" s="2">
@@ -2978,7 +2975,7 @@
       <c r="H48" s="2">
         <v>14</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J48" s="2">
@@ -3002,7 +2999,7 @@
       <c r="E49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G49" s="2">
@@ -3011,7 +3008,7 @@
       <c r="H49" s="2">
         <v>15</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="9" t="s">
         <v>114</v>
       </c>
       <c r="J49" s="2">
@@ -3035,7 +3032,7 @@
       <c r="E50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G50" s="2">
@@ -3044,7 +3041,7 @@
       <c r="H50" s="2">
         <v>16</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="9" t="s">
         <v>116</v>
       </c>
       <c r="J50" s="2">

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="118">
   <si>
     <t>材料ID</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>产出途径(1-资源岛，2-战斗奖励，3-菜园，4-钓鱼台，5-加工室,6-商城，7-活动)</t>
+  </si>
+  <si>
+    <t>材料id</t>
   </si>
   <si>
     <t>A</t>
@@ -375,11 +378,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -404,6 +407,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -418,10 +429,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,8 +452,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,31 +483,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -486,25 +507,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +516,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,14 +532,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,187 +566,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,54 +776,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -837,11 +792,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,6 +858,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -875,145 +878,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,7 +1400,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1414,7 +1417,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,92 +1445,98 @@
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1535,20 +1544,20 @@
         <v>1001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>$C$4&amp;"_"&amp;A5</f>
         <v>MaterialIcon_1001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2">
         <v>200</v>
@@ -1557,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2">
         <v>1001</v>
@@ -1568,20 +1577,20 @@
         <v>1002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>$C$4&amp;"_"&amp;A6</f>
         <v>MaterialIcon_1002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>200</v>
@@ -1590,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2">
         <v>1002</v>
@@ -1601,20 +1610,20 @@
         <v>1003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" ref="C7:C40" si="0">$C$4&amp;"_"&amp;A7</f>
         <v>MaterialIcon_1003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
@@ -1623,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
         <v>1003</v>
@@ -1634,20 +1643,20 @@
         <v>1004</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1004</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2">
         <v>200</v>
@@ -1656,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2">
         <v>1004</v>
@@ -1667,20 +1676,20 @@
         <v>1005</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1005</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2">
         <v>200</v>
@@ -1689,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2">
         <v>1005</v>
@@ -1700,20 +1709,20 @@
         <v>1006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1006</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2">
         <v>200</v>
@@ -1722,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2">
         <v>1006</v>
@@ -1733,20 +1742,20 @@
         <v>1007</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1007</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2">
         <v>200</v>
@@ -1755,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2">
         <v>1007</v>
@@ -1766,20 +1775,20 @@
         <v>1008</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1008</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2">
         <v>200</v>
@@ -1788,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2">
         <v>1008</v>
@@ -1799,20 +1808,20 @@
         <v>1009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1009</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2">
         <v>200</v>
@@ -1821,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2">
         <v>1009</v>
@@ -1832,20 +1841,20 @@
         <v>1010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1010</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2">
         <v>200</v>
@@ -1854,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="2">
         <v>1010</v>
@@ -1865,20 +1874,20 @@
         <v>1011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1011</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2">
         <v>200</v>
@@ -1887,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2">
         <v>1011</v>
@@ -1898,20 +1907,20 @@
         <v>1012</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1012</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2">
         <v>200</v>
@@ -1920,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" s="2">
         <v>1012</v>
@@ -1931,20 +1940,20 @@
         <v>1013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1013</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2">
         <v>200</v>
@@ -1953,7 +1962,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="2">
         <v>1013</v>
@@ -1964,20 +1973,20 @@
         <v>1014</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1014</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2">
         <v>200</v>
@@ -1986,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="2">
         <v>1014</v>
@@ -1997,20 +2006,20 @@
         <v>1015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1015</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2">
         <v>200</v>
@@ -2019,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J19" s="2">
         <v>1015</v>
@@ -2030,20 +2039,20 @@
         <v>1016</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1016</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2">
         <v>200</v>
@@ -2052,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="2">
         <v>1016</v>
@@ -2063,20 +2072,20 @@
         <v>1017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1017</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" s="2">
         <v>200</v>
@@ -2085,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J21" s="2">
         <v>1017</v>
@@ -2096,20 +2105,20 @@
         <v>1018</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1018</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2">
         <v>200</v>
@@ -2118,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J22" s="2">
         <v>1018</v>
@@ -2129,20 +2138,20 @@
         <v>1019</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1019</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2">
         <v>200</v>
@@ -2151,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J23" s="2">
         <v>1019</v>
@@ -2162,20 +2171,20 @@
         <v>1020</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1020</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" s="2">
         <v>200</v>
@@ -2184,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J24" s="2">
         <v>1020</v>
@@ -2195,20 +2204,20 @@
         <v>1021</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1021</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2">
         <v>200</v>
@@ -2217,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J25" s="2">
         <v>1021</v>
@@ -2228,20 +2237,20 @@
         <v>1022</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1022</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2">
         <v>200</v>
@@ -2250,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J26" s="2">
         <v>1022</v>
@@ -2261,20 +2270,20 @@
         <v>1023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1023</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" s="2">
         <v>200</v>
@@ -2283,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J27" s="2">
         <v>1023</v>
@@ -2294,20 +2303,20 @@
         <v>1024</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1024</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2">
         <v>200</v>
@@ -2316,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J28" s="2">
         <v>1024</v>
@@ -2327,20 +2336,20 @@
         <v>1025</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1025</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2">
         <v>200</v>
@@ -2349,7 +2358,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J29" s="2">
         <v>1025</v>
@@ -2360,20 +2369,20 @@
         <v>1026</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1026</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30" s="2">
         <v>200</v>
@@ -2382,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J30" s="2">
         <v>1026</v>
@@ -2393,20 +2402,20 @@
         <v>1027</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1027</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2">
         <v>200</v>
@@ -2415,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" s="2">
         <v>1027</v>
@@ -2426,20 +2435,20 @@
         <v>1028</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1028</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32" s="2">
         <v>200</v>
@@ -2448,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" s="2">
         <v>1028</v>
@@ -2459,20 +2468,20 @@
         <v>1029</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1029</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2">
         <v>200</v>
@@ -2481,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" s="2">
         <v>1029</v>
@@ -2492,20 +2501,20 @@
         <v>1030</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1030</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G34" s="2">
         <v>200</v>
@@ -2514,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J34" s="2">
         <v>1030</v>
@@ -2525,20 +2534,20 @@
         <v>1031</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1031</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35" s="2">
         <v>200</v>
@@ -2547,7 +2556,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J35" s="2">
         <v>1031</v>
@@ -2558,20 +2567,20 @@
         <v>1032</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1032</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2">
         <v>200</v>
@@ -2580,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J36" s="2">
         <v>1032</v>
@@ -2591,20 +2600,20 @@
         <v>1033</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1033</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G37" s="2">
         <v>200</v>
@@ -2613,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J37" s="2">
         <v>1033</v>
@@ -2624,20 +2633,20 @@
         <v>1034</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1034</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" s="2">
         <v>200</v>
@@ -2646,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J38" s="2">
         <v>1034</v>
@@ -2657,20 +2666,20 @@
         <v>1035</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1035</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G39" s="2">
         <v>200</v>
@@ -2679,7 +2688,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J39" s="2">
         <v>1035</v>
@@ -2690,20 +2699,20 @@
         <v>1036</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>MaterialIcon_1036</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G40" s="2">
         <v>200</v>
@@ -2712,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J40" s="2">
         <v>1036</v>
@@ -2723,20 +2732,20 @@
         <v>1037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" ref="C41:C50" si="1">$C$4&amp;"_"&amp;A41</f>
         <v>MaterialIcon_1037</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G41" s="2">
         <v>200</v>
@@ -2745,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J41" s="2">
         <v>1037</v>
@@ -2756,20 +2765,20 @@
         <v>1038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1038</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G42" s="2">
         <v>200</v>
@@ -2778,7 +2787,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J42" s="2">
         <v>1038</v>
@@ -2789,20 +2798,20 @@
         <v>1039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1039</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G43" s="2">
         <v>200</v>
@@ -2811,7 +2820,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J43" s="2">
         <v>1039</v>
@@ -2822,20 +2831,20 @@
         <v>1040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1040</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G44" s="2">
         <v>200</v>
@@ -2844,7 +2853,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J44" s="2">
         <v>1040</v>
@@ -2855,20 +2864,20 @@
         <v>1041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1041</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G45" s="2">
         <v>200</v>
@@ -2877,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J45" s="2">
         <v>1041</v>
@@ -2888,20 +2897,20 @@
         <v>1042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1042</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G46" s="2">
         <v>200</v>
@@ -2910,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J46" s="2">
         <v>1042</v>
@@ -2921,20 +2930,20 @@
         <v>1043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1043</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" s="2">
         <v>200</v>
@@ -2943,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J47" s="2">
         <v>1043</v>
@@ -2954,20 +2963,20 @@
         <v>1044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1044</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G48" s="2">
         <v>200</v>
@@ -2976,7 +2985,7 @@
         <v>14</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J48" s="2">
         <v>1044</v>
@@ -2987,20 +2996,20 @@
         <v>1045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1045</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G49" s="2">
         <v>200</v>
@@ -3009,7 +3018,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J49" s="2">
         <v>1045</v>
@@ -3020,20 +3029,20 @@
         <v>1046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="1"/>
         <v>MaterialIcon_1046</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G50" s="2">
         <v>200</v>
@@ -3042,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J50" s="2">
         <v>1046</v>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="130">
   <si>
     <t>材料ID</t>
   </si>
@@ -371,6 +371,42 @@
   </si>
   <si>
     <t>英雄10碎片</t>
+  </si>
+  <si>
+    <t>Flax</t>
+  </si>
+  <si>
+    <t>亚麻</t>
+  </si>
+  <si>
+    <t>Burlap</t>
+  </si>
+  <si>
+    <t>粗麻布</t>
+  </si>
+  <si>
+    <t>Chainsel</t>
+  </si>
+  <si>
+    <t>精麻布</t>
+  </si>
+  <si>
+    <t>Copper Mine</t>
+  </si>
+  <si>
+    <t>铜矿</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>Brass</t>
+  </si>
+  <si>
+    <t>黄铜</t>
   </si>
 </sst>
 </file>
@@ -378,9 +414,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -407,9 +443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,7 +458,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,47 +503,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,8 +518,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -507,28 +564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -538,14 +573,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,7 +602,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +704,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +752,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,151 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,6 +811,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -786,15 +833,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,10 +854,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -836,21 +872,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,16 +893,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,133 +926,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,12 +1431,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1569,6 +1605,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="2">
+        <f>A5</f>
         <v>1001</v>
       </c>
     </row>
@@ -1602,6 +1639,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="2">
+        <f t="shared" ref="J6:J37" si="0">A6</f>
         <v>1002</v>
       </c>
     </row>
@@ -1613,7 +1651,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" ref="C7:C40" si="0">$C$4&amp;"_"&amp;A7</f>
+        <f t="shared" ref="C7:C40" si="1">$C$4&amp;"_"&amp;A7</f>
         <v>MaterialIcon_1003</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1635,6 +1673,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="2">
+        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
     </row>
@@ -1646,7 +1685,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1004</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1668,6 +1707,7 @@
         <v>32</v>
       </c>
       <c r="J8" s="2">
+        <f t="shared" si="0"/>
         <v>1004</v>
       </c>
     </row>
@@ -1679,7 +1719,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1005</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1701,6 +1741,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="0"/>
         <v>1005</v>
       </c>
     </row>
@@ -1712,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1006</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1734,6 +1775,7 @@
         <v>36</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="0"/>
         <v>1006</v>
       </c>
     </row>
@@ -1745,7 +1787,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1007</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1767,6 +1809,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="0"/>
         <v>1007</v>
       </c>
     </row>
@@ -1778,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1008</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1800,6 +1843,7 @@
         <v>40</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="0"/>
         <v>1008</v>
       </c>
     </row>
@@ -1811,7 +1855,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1009</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1833,6 +1877,7 @@
         <v>42</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="0"/>
         <v>1009</v>
       </c>
     </row>
@@ -1844,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1010</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1866,6 +1911,7 @@
         <v>44</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="0"/>
         <v>1010</v>
       </c>
     </row>
@@ -1877,7 +1923,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1011</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1899,6 +1945,7 @@
         <v>46</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" si="0"/>
         <v>1011</v>
       </c>
     </row>
@@ -1910,7 +1957,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1012</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1932,6 +1979,7 @@
         <v>48</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="0"/>
         <v>1012</v>
       </c>
     </row>
@@ -1943,7 +1991,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1013</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1965,6 +2013,7 @@
         <v>50</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="0"/>
         <v>1013</v>
       </c>
     </row>
@@ -1976,7 +2025,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1014</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1998,6 +2047,7 @@
         <v>52</v>
       </c>
       <c r="J18" s="2">
+        <f t="shared" si="0"/>
         <v>1014</v>
       </c>
     </row>
@@ -2009,7 +2059,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1015</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -2031,6 +2081,7 @@
         <v>54</v>
       </c>
       <c r="J19" s="2">
+        <f t="shared" si="0"/>
         <v>1015</v>
       </c>
     </row>
@@ -2042,7 +2093,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1016</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2064,6 +2115,7 @@
         <v>56</v>
       </c>
       <c r="J20" s="2">
+        <f t="shared" si="0"/>
         <v>1016</v>
       </c>
     </row>
@@ -2075,7 +2127,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1017</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2097,6 +2149,7 @@
         <v>58</v>
       </c>
       <c r="J21" s="2">
+        <f t="shared" si="0"/>
         <v>1017</v>
       </c>
     </row>
@@ -2108,7 +2161,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1018</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -2130,6 +2183,7 @@
         <v>60</v>
       </c>
       <c r="J22" s="2">
+        <f t="shared" si="0"/>
         <v>1018</v>
       </c>
     </row>
@@ -2141,7 +2195,7 @@
         <v>61</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1019</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2163,6 +2217,7 @@
         <v>62</v>
       </c>
       <c r="J23" s="2">
+        <f t="shared" si="0"/>
         <v>1019</v>
       </c>
     </row>
@@ -2174,7 +2229,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1020</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2196,6 +2251,7 @@
         <v>64</v>
       </c>
       <c r="J24" s="2">
+        <f t="shared" si="0"/>
         <v>1020</v>
       </c>
     </row>
@@ -2207,7 +2263,7 @@
         <v>65</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1021</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2229,6 +2285,7 @@
         <v>66</v>
       </c>
       <c r="J25" s="2">
+        <f t="shared" si="0"/>
         <v>1021</v>
       </c>
     </row>
@@ -2240,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1022</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2262,6 +2319,7 @@
         <v>68</v>
       </c>
       <c r="J26" s="2">
+        <f t="shared" si="0"/>
         <v>1022</v>
       </c>
     </row>
@@ -2273,7 +2331,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1023</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -2295,6 +2353,7 @@
         <v>70</v>
       </c>
       <c r="J27" s="2">
+        <f t="shared" si="0"/>
         <v>1023</v>
       </c>
     </row>
@@ -2306,7 +2365,7 @@
         <v>71</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1024</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -2328,6 +2387,7 @@
         <v>72</v>
       </c>
       <c r="J28" s="2">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
     </row>
@@ -2339,7 +2399,7 @@
         <v>73</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1025</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2361,6 +2421,7 @@
         <v>74</v>
       </c>
       <c r="J29" s="2">
+        <f t="shared" si="0"/>
         <v>1025</v>
       </c>
     </row>
@@ -2372,7 +2433,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1026</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -2394,6 +2455,7 @@
         <v>76</v>
       </c>
       <c r="J30" s="2">
+        <f t="shared" si="0"/>
         <v>1026</v>
       </c>
     </row>
@@ -2405,7 +2467,7 @@
         <v>77</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1027</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2427,6 +2489,7 @@
         <v>78</v>
       </c>
       <c r="J31" s="2">
+        <f t="shared" si="0"/>
         <v>1027</v>
       </c>
     </row>
@@ -2438,7 +2501,7 @@
         <v>79</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1028</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -2460,6 +2523,7 @@
         <v>80</v>
       </c>
       <c r="J32" s="2">
+        <f t="shared" si="0"/>
         <v>1028</v>
       </c>
     </row>
@@ -2471,7 +2535,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1029</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2493,6 +2557,7 @@
         <v>82</v>
       </c>
       <c r="J33" s="2">
+        <f t="shared" si="0"/>
         <v>1029</v>
       </c>
     </row>
@@ -2504,7 +2569,7 @@
         <v>83</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1030</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2526,6 +2591,7 @@
         <v>84</v>
       </c>
       <c r="J34" s="2">
+        <f t="shared" si="0"/>
         <v>1030</v>
       </c>
     </row>
@@ -2537,7 +2603,7 @@
         <v>85</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1031</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -2559,6 +2625,7 @@
         <v>86</v>
       </c>
       <c r="J35" s="2">
+        <f t="shared" si="0"/>
         <v>1031</v>
       </c>
     </row>
@@ -2570,7 +2637,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1032</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -2592,6 +2659,7 @@
         <v>88</v>
       </c>
       <c r="J36" s="2">
+        <f t="shared" si="0"/>
         <v>1032</v>
       </c>
     </row>
@@ -2603,7 +2671,7 @@
         <v>89</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1033</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2625,6 +2693,7 @@
         <v>90</v>
       </c>
       <c r="J37" s="2">
+        <f t="shared" si="0"/>
         <v>1033</v>
       </c>
     </row>
@@ -2636,7 +2705,7 @@
         <v>91</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1034</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2658,6 +2727,7 @@
         <v>92</v>
       </c>
       <c r="J38" s="2">
+        <f t="shared" ref="J38:J56" si="2">A38</f>
         <v>1034</v>
       </c>
     </row>
@@ -2669,7 +2739,7 @@
         <v>93</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1035</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2691,6 +2761,7 @@
         <v>94</v>
       </c>
       <c r="J39" s="2">
+        <f t="shared" si="2"/>
         <v>1035</v>
       </c>
     </row>
@@ -2702,7 +2773,7 @@
         <v>95</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MaterialIcon_1036</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2724,6 +2795,7 @@
         <v>96</v>
       </c>
       <c r="J40" s="2">
+        <f t="shared" si="2"/>
         <v>1036</v>
       </c>
     </row>
@@ -2735,7 +2807,7 @@
         <v>97</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f t="shared" ref="C41:C50" si="1">$C$4&amp;"_"&amp;A41</f>
+        <f t="shared" ref="C41:C56" si="3">$C$4&amp;"_"&amp;A41</f>
         <v>MaterialIcon_1037</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -2757,6 +2829,7 @@
         <v>99</v>
       </c>
       <c r="J41" s="2">
+        <f t="shared" si="2"/>
         <v>1037</v>
       </c>
     </row>
@@ -2768,7 +2841,7 @@
         <v>100</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MaterialIcon_1038</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -2790,6 +2863,7 @@
         <v>101</v>
       </c>
       <c r="J42" s="2">
+        <f t="shared" si="2"/>
         <v>1038</v>
       </c>
     </row>
@@ -2801,7 +2875,7 @@
         <v>102</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MaterialIcon_1039</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2823,6 +2897,7 @@
         <v>103</v>
       </c>
       <c r="J43" s="2">
+        <f t="shared" si="2"/>
         <v>1039</v>
       </c>
     </row>
@@ -2834,7 +2909,7 @@
         <v>104</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MaterialIcon_1040</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -2856,6 +2931,7 @@
         <v>105</v>
       </c>
       <c r="J44" s="2">
+        <f t="shared" si="2"/>
         <v>1040</v>
       </c>
     </row>
@@ -2867,7 +2943,7 @@
         <v>106</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MaterialIcon_1041</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -2889,6 +2965,7 @@
         <v>107</v>
       </c>
       <c r="J45" s="2">
+        <f t="shared" si="2"/>
         <v>1041</v>
       </c>
     </row>
@@ -2900,7 +2977,7 @@
         <v>108</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MaterialIcon_1042</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -2922,6 +2999,7 @@
         <v>109</v>
       </c>
       <c r="J46" s="2">
+        <f t="shared" si="2"/>
         <v>1042</v>
       </c>
     </row>
@@ -2933,7 +3011,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MaterialIcon_1043</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -2955,6 +3033,7 @@
         <v>111</v>
       </c>
       <c r="J47" s="2">
+        <f t="shared" si="2"/>
         <v>1043</v>
       </c>
     </row>
@@ -2966,7 +3045,7 @@
         <v>112</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MaterialIcon_1044</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -2988,6 +3067,7 @@
         <v>113</v>
       </c>
       <c r="J48" s="2">
+        <f t="shared" si="2"/>
         <v>1044</v>
       </c>
     </row>
@@ -2999,7 +3079,7 @@
         <v>114</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MaterialIcon_1045</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -3021,6 +3101,7 @@
         <v>115</v>
       </c>
       <c r="J49" s="2">
+        <f t="shared" si="2"/>
         <v>1045</v>
       </c>
     </row>
@@ -3032,7 +3113,7 @@
         <v>116</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MaterialIcon_1046</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -3054,13 +3135,221 @@
         <v>117</v>
       </c>
       <c r="J50" s="2">
+        <f t="shared" si="2"/>
         <v>1046</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>1047</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MaterialIcon_1047</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="2">
+        <v>200</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="2"/>
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>1048</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MaterialIcon_1048</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="2">
+        <v>200</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="2"/>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>1049</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MaterialIcon_1049</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="2">
+        <v>200</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="2"/>
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>1050</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MaterialIcon_1050</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="2">
+        <v>200</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2">
+        <v>1051</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MaterialIcon_1051</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="2">
+        <v>200</v>
+      </c>
+      <c r="H55" s="2">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="2"/>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2">
+        <v>1052</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MaterialIcon_1052</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="2">
+        <v>200</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="2"/>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:G15">
     <sortCondition ref="A5"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B55" r:id="rId1" display="Copper"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -40,7 +40,7 @@
     <t>出售价格</t>
   </si>
   <si>
-    <t>产出途径(1-资源岛，2-战斗奖励，3-菜园，4-钓鱼台，5-加工室,6-商城，7-活动)</t>
+    <t>产出途径(1-资源岛Resource Island，2-战斗奖励Battle Rewards，3-菜园Planting，4-钓鱼台Fishing，5-加工室Processing,6-商城Store，7-活动Activity，8-远征任务Expeditionary Mission)</t>
   </si>
   <si>
     <t>材料id</t>
@@ -414,11 +414,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -444,7 +444,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,6 +459,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +503,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,59 +512,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,8 +549,32 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,14 +582,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,7 +602,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,7 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,13 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,19 +674,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,49 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,43 +752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,32 +811,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -852,11 +826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,7 +860,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,166 +908,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1436,7 +1436,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2075,7 +2075,7 @@
         <v>200</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>54</v>
@@ -2109,7 +2109,7 @@
         <v>200</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>56</v>
@@ -2143,7 +2143,7 @@
         <v>200</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>58</v>
@@ -2177,7 +2177,7 @@
         <v>200</v>
       </c>
       <c r="H22" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>60</v>
@@ -2211,7 +2211,7 @@
         <v>200</v>
       </c>
       <c r="H23" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>62</v>
@@ -2245,7 +2245,7 @@
         <v>200</v>
       </c>
       <c r="H24" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>64</v>
@@ -2279,7 +2279,7 @@
         <v>200</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>66</v>
@@ -2313,7 +2313,7 @@
         <v>200</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>68</v>
@@ -2347,7 +2347,7 @@
         <v>200</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>70</v>
@@ -2381,7 +2381,7 @@
         <v>200</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>72</v>
@@ -2857,7 +2857,7 @@
         <v>200</v>
       </c>
       <c r="H42" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>101</v>
@@ -2891,7 +2891,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>103</v>
@@ -2925,7 +2925,7 @@
         <v>200</v>
       </c>
       <c r="H44" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>105</v>
@@ -2959,7 +2959,7 @@
         <v>200</v>
       </c>
       <c r="H45" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>107</v>
@@ -2993,7 +2993,7 @@
         <v>200</v>
       </c>
       <c r="H46" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>109</v>
@@ -3027,7 +3027,7 @@
         <v>200</v>
       </c>
       <c r="H47" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>111</v>
@@ -3061,7 +3061,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>113</v>
@@ -3095,7 +3095,7 @@
         <v>200</v>
       </c>
       <c r="H49" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>115</v>
@@ -3129,7 +3129,7 @@
         <v>200</v>
       </c>
       <c r="H50" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>117</v>

--- a/Tables/Sources/gameplay/MaterialConfig.xlsx
+++ b/Tables/Sources/gameplay/MaterialConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,13 +414,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,14 +444,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,14 +488,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,21 +504,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,14 +574,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,60 +609,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -668,7 +621,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +699,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,49 +759,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,43 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,6 +818,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -822,21 +864,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,36 +915,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,19 +933,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -947,10 +954,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,98 +972,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1080,6 +1087,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1436,24 +1449,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.4537037037037" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.4545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4444444444444" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.2222222222222" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.7777777777778" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4454545454545" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.2181818181818" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.7818181818182" style="3" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.8703703703704" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.3333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.8727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.3363636363636" style="2" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1517,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2077,7 +2090,7 @@
       <c r="H19" s="2">
         <v>8</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J19" s="2">
@@ -2111,7 +2124,7 @@
       <c r="H20" s="2">
         <v>8</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J20" s="2">
@@ -2145,7 +2158,7 @@
       <c r="H21" s="2">
         <v>8</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="2">
@@ -2179,7 +2192,7 @@
       <c r="H22" s="2">
         <v>8</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="9" t="s">
         <v>60</v>
       </c>
       <c r="J22" s="2">
@@ -2213,7 +2226,7 @@
       <c r="H23" s="2">
         <v>8</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="9" t="s">
         <v>62</v>
       </c>
       <c r="J23" s="2">
@@ -2247,7 +2260,7 @@
       <c r="H24" s="2">
         <v>8</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="2">
@@ -2281,7 +2294,7 @@
       <c r="H25" s="2">
         <v>8</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="9" t="s">
         <v>66</v>
       </c>
       <c r="J25" s="2">
@@ -2315,7 +2328,7 @@
       <c r="H26" s="2">
         <v>8</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="10" t="s">
         <v>68</v>
       </c>
       <c r="J26" s="2">
@@ -2349,7 +2362,7 @@
       <c r="H27" s="2">
         <v>8</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J27" s="2">
@@ -2383,7 +2396,7 @@
       <c r="H28" s="2">
         <v>8</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="9" t="s">
         <v>72</v>
       </c>
       <c r="J28" s="2">
@@ -2825,7 +2838,7 @@
       <c r="H41" s="2">
         <v>7</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="11" t="s">
         <v>99</v>
       </c>
       <c r="J41" s="2">
@@ -2859,7 +2872,7 @@
       <c r="H42" s="2">
         <v>7</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="11" t="s">
         <v>101</v>
       </c>
       <c r="J42" s="2">
@@ -2893,7 +2906,7 @@
       <c r="H43" s="2">
         <v>7</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="11" t="s">
         <v>103</v>
       </c>
       <c r="J43" s="2">
@@ -2927,7 +2940,7 @@
       <c r="H44" s="2">
         <v>7</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="11" t="s">
         <v>105</v>
       </c>
       <c r="J44" s="2">
@@ -2961,7 +2974,7 @@
       <c r="H45" s="2">
         <v>7</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="11" t="s">
         <v>107</v>
       </c>
       <c r="J45" s="2">
@@ -2995,7 +3008,7 @@
       <c r="H46" s="2">
         <v>7</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="11" t="s">
         <v>109</v>
       </c>
       <c r="J46" s="2">
@@ -3029,7 +3042,7 @@
       <c r="H47" s="2">
         <v>7</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="11" t="s">
         <v>111</v>
       </c>
       <c r="J47" s="2">
@@ -3063,7 +3076,7 @@
       <c r="H48" s="2">
         <v>7</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="11" t="s">
         <v>113</v>
       </c>
       <c r="J48" s="2">
@@ -3097,7 +3110,7 @@
       <c r="H49" s="2">
         <v>7</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="11" t="s">
         <v>115</v>
       </c>
       <c r="J49" s="2">
@@ -3131,7 +3144,7 @@
       <c r="H50" s="2">
         <v>7</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="11" t="s">
         <v>117</v>
       </c>
       <c r="J50" s="2">
